--- a/similarities/split_global/harmonic_similarity_timestamps_11.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>isophonics_191</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['Bb:7', 'Eb:min', 'Ab:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
+          <t>['G:7', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:02.960000', '0:00:13.120000')]</t>
+          <t>('0:00:08.620975', '0:00:14.367913')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:20.648911', '0:00:30.830861')]</t>
+          <t>('0:01:30.128000', '0:01:37.445000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=2.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=8.620975</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=20.648911']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=90.128</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:39.386636', '0:00:52.146870')]</t>
+          <t>('0:00:08.240000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:05.160000', '0:00:11.100000')]</t>
+          <t>('0:00:01.540000', '0:00:06.680000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=39.386636']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=5.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>jaah_9</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>isophonics_35</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['G:7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:03', '0:00:07.380000')]</t>
+          <t>('0:00:50.360000', '0:00:57.040000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:00:18.783807', '0:00:24.845034')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=50.36</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=18.783807</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'A', 'B:min']]</t>
+          <t>['E:7', 'A', 'D']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D/3', 'E:min']]</t>
+          <t>['A:7/G', 'D:maj/F#', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:59.205240', '0:01:09.665829')]</t>
+          <t>('0:00:26.987959', '0:00:33.059977')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:09.336000', '0:00:14.901000')]</t>
+          <t>('0:00:56.280000', '0:01:02.780000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=59.20524']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=26.987959</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=56.28</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:08.340000', '0:00:10.040000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:04.103323', '0:00:13.890534')]</t>
+          <t>('0:00:58.320000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=4.103323']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:20.560000', '0:00:23.940000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:10.980000', '0:01:20.440000')]</t>
+          <t>('0:00:58.320000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['F', 'C:7', 'F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:07.700000'), ('0:00:00.660000', '0:00:06.020000')]</t>
+          <t>('0:00:22.170000', '0:00:32.220000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:10.820000', '0:00:22.920000'), ('0:00:09.400000', '0:00:20.180000')]</t>
+          <t>('0:01:19.980000', '0:01:39.360000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=1.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=22.17</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=9.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:09.200000', '0:00:20.100000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_257</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G'], ['F:maj/A', 'C:maj/G', 'F:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G'], ['C', 'G', 'C']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:30.220000', '0:00:31.940000'), ('0:00:29.440000', '0:00:31.600000')]</t>
+          <t>('0:01:08.640000', '0:01:23.840000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:55.943242', '0:01:05.045464'), ('0:00:57.824058', '0:01:06.833401')]</t>
+          <t>('0:00:22.370000', '0:00:47.630000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=30.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=29.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-257#t=55.943242', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-257#t=57.824058']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>jaah_45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>jaah_88</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['G:min7', 'C:7', 'F:min7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb']]</t>
+          <t>['A:min7', 'D:7', 'G:min7', 'C:7']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:40.960000', '0:00:43.300000')]</t>
+          <t>('0:00:58.450000', '0:01:02.950000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:26.041712', '0:00:37.106020')]</t>
+          <t>('0:00:11.840000', '0:00:16.560000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-45#t=58.45</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=26.041712']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=11.84</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:34.060000', '0:01:45.580000')]</t>
+          <t>('0:00:40.490000', '0:00:47.860000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:23.760000', '0:01:32.660000')]</t>
+          <t>('0:00:08.413696', '0:00:11.072593')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=94.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=83.76']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>jaah_4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:00:52.200000')]</t>
+          <t>('0:00:01.970000', '0:00:03.650000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:12.120000', '0:00:17.320000')]</t>
+          <t>('0:00:42.100000', '0:00:48.620000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=1.97</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=42.1</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab'], ['F:min7', 'Bb:7', 'Eb']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:00.800000', '0:01:09.040000'), ('0:01:14.200000', '0:01:21.180000')]</t>
+          <t>('0:00:16.720000', '0:00:26.460000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00', '0:00:02.430000'), ('0:00:17.680000', '0:00:20.040000')]</t>
+          <t>('0:00:47.300000', '0:00:50.040000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=60.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=74.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=16.72</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=0.0', 'https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=17.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.3</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:02.660000', '0:00:07.980000')]</t>
+          <t>('0:00:59.500000', '0:01:08.120000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>isophonics_53</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>isophonics_165</t>
-        </is>
-      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E', 'A']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E', 'A']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:40.490000', '0:00:51.380000')]</t>
+          <t>('0:00:21.580000', '0:00:29.340000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:50.730362', '0:00:55.420793')]</t>
+          <t>('0:00:40.490000', '0:00:47.860000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=50.730362']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
